--- a/html/resources/ioaConditions/train1P1Block4.xlsx
+++ b/html/resources/ioaConditions/train1P1Block4.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P1Block4.xlsx
+++ b/html/resources/ioaConditions/train1P1Block4.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
+    <t>trainingaudio/17_kotako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.mp3</t>
   </si>
   <si>
     <t>pngimages/17_cracker.png</t>

--- a/html/resources/ioaConditions/train1P1Block4.xlsx
+++ b/html/resources/ioaConditions/train1P1Block4.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.mp3</t>
+    <t>trainingaudio/17_kotako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.ogg</t>
   </si>
   <si>
     <t>pngimages/17_cracker.png</t>

--- a/html/resources/ioaConditions/train1P1Block4.xlsx
+++ b/html/resources/ioaConditions/train1P1Block4.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.ogg</t>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
   </si>
   <si>
     <t>pngimages/17_cracker.png</t>
